--- a/data/trans_bre/P15E_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P15E_R-Estudios-trans_bre.xlsx
@@ -552,10 +552,10 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>10.72430063654078</v>
+        <v>10.72430063654075</v>
       </c>
       <c r="D4" s="6" t="n">
-        <v>0.1582616758062408</v>
+        <v>0.1582616758062402</v>
       </c>
     </row>
     <row r="5">
@@ -566,10 +566,10 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-5.027756922355975</v>
+        <v>-5.089497325967657</v>
       </c>
       <c r="D5" s="6" t="n">
-        <v>-0.05585300527333378</v>
+        <v>-0.06109637049177717</v>
       </c>
     </row>
     <row r="6">
@@ -580,10 +580,10 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>27.97393089767855</v>
+        <v>28.44574681035945</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>0.526767830397102</v>
+        <v>0.528257658428244</v>
       </c>
     </row>
     <row r="7">
@@ -598,10 +598,10 @@
         </is>
       </c>
       <c r="C7" s="5" t="n">
-        <v>6.279696334531359</v>
+        <v>6.279696334531348</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>0.1083705514702119</v>
+        <v>0.1083705514702117</v>
       </c>
     </row>
     <row r="8">
@@ -612,10 +612,10 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-22.20174500709778</v>
+        <v>-25.66826227269137</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.3054402182254778</v>
+        <v>-0.3542261346349109</v>
       </c>
     </row>
     <row r="9">
@@ -626,10 +626,10 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>37.33087045806944</v>
+        <v>35.60844335810576</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>1.002293767582733</v>
+        <v>0.9801307018595214</v>
       </c>
     </row>
     <row r="10">
@@ -644,7 +644,7 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>-15.53950406303927</v>
+        <v>-15.53950406303928</v>
       </c>
       <c r="D10" s="6" t="n">
         <v>-0.256215483487128</v>
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-65.78922118205277</v>
+        <v>-61.46981503579065</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>-0.7481374914906369</v>
+        <v>-0.7182179500573187</v>
       </c>
     </row>
     <row r="12">
@@ -672,10 +672,10 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>39.82302892506646</v>
+        <v>36.54221927024943</v>
       </c>
       <c r="D12" s="6" t="n">
-        <v>1.920396096409559</v>
+        <v>1.847482513312415</v>
       </c>
     </row>
     <row r="13">
@@ -704,10 +704,10 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-5.863922242362854</v>
+        <v>-4.087284203753011</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.07256883022847328</v>
+        <v>-0.05581921727910582</v>
       </c>
     </row>
     <row r="15">
@@ -718,10 +718,10 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>23.44539719232484</v>
+        <v>24.11551134106424</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.4460555477160877</v>
+        <v>0.4671581082380929</v>
       </c>
     </row>
     <row r="16">
